--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H2">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I2">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J2">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N2">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O2">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P2">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q2">
-        <v>29.76424028303811</v>
+        <v>56.66061900067179</v>
       </c>
       <c r="R2">
-        <v>267.878162547343</v>
+        <v>509.9455710060461</v>
       </c>
       <c r="S2">
-        <v>0.002064723421818172</v>
+        <v>0.003176921305219268</v>
       </c>
       <c r="T2">
-        <v>0.002219429470646329</v>
+        <v>0.003361934418541785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H3">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I3">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J3">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P3">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q3">
-        <v>137.9267174102822</v>
+        <v>237.3577780219178</v>
       </c>
       <c r="R3">
-        <v>1241.34045669254</v>
+        <v>2136.22000219726</v>
       </c>
       <c r="S3">
-        <v>0.009567874779380653</v>
+        <v>0.01330848471578463</v>
       </c>
       <c r="T3">
-        <v>0.01028477859669537</v>
+        <v>0.01408352569235125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H4">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I4">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J4">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N4">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O4">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P4">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q4">
-        <v>194.3484897583656</v>
+        <v>431.359660050095</v>
       </c>
       <c r="R4">
-        <v>1749.13640782529</v>
+        <v>3882.236940450855</v>
       </c>
       <c r="S4">
-        <v>0.01348181156257375</v>
+        <v>0.02418603464619827</v>
       </c>
       <c r="T4">
-        <v>0.01449197969252836</v>
+        <v>0.0255945472088066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H5">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I5">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J5">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N5">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O5">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P5">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q5">
-        <v>90.52662614639117</v>
+        <v>139.5954140504525</v>
       </c>
       <c r="R5">
-        <v>543.159756878347</v>
+        <v>837.572484302715</v>
       </c>
       <c r="S5">
-        <v>0.006279765366937583</v>
+        <v>0.007827017297543638</v>
       </c>
       <c r="T5">
-        <v>0.004500198001290403</v>
+        <v>0.005521890811691079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H6">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I6">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J6">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N6">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O6">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P6">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q6">
-        <v>193.0132146239582</v>
+        <v>491.9254193029143</v>
       </c>
       <c r="R6">
-        <v>1737.118931615624</v>
+        <v>4427.328773726229</v>
       </c>
       <c r="S6">
-        <v>0.01338918451016572</v>
+        <v>0.02758191443591221</v>
       </c>
       <c r="T6">
-        <v>0.01439241226004752</v>
+        <v>0.02918819151076445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>52.872045</v>
       </c>
       <c r="I7">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J7">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N7">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O7">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P7">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q7">
-        <v>149.1808072121517</v>
+        <v>165.0229696742634</v>
       </c>
       <c r="R7">
-        <v>1342.627264909365</v>
+        <v>1485.20672706837</v>
       </c>
       <c r="S7">
-        <v>0.01034856269831292</v>
+        <v>0.009252722569135797</v>
       </c>
       <c r="T7">
-        <v>0.01112396207102727</v>
+        <v>0.009791569724843728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>52.872045</v>
       </c>
       <c r="I8">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J8">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P8">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q8">
         <v>691.2999909866334</v>
@@ -948,10 +948,10 @@
         <v>6221.6999188797</v>
       </c>
       <c r="S8">
-        <v>0.04795497111028903</v>
+        <v>0.03876070732014567</v>
       </c>
       <c r="T8">
-        <v>0.05154815169018878</v>
+        <v>0.04101799934815455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>52.872045</v>
       </c>
       <c r="I9">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J9">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N9">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O9">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P9">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q9">
-        <v>974.0905296728833</v>
+        <v>1256.326763714025</v>
       </c>
       <c r="R9">
-        <v>8766.81476705595</v>
+        <v>11306.94087342623</v>
       </c>
       <c r="S9">
-        <v>0.06757194245381158</v>
+        <v>0.07044136354939819</v>
       </c>
       <c r="T9">
-        <v>0.07263498775964111</v>
+        <v>0.07454362946185455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>52.872045</v>
       </c>
       <c r="I10">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J10">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N10">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O10">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P10">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q10">
-        <v>453.7268559280976</v>
+        <v>406.5689748154875</v>
       </c>
       <c r="R10">
-        <v>2722.361135568585</v>
+        <v>2439.413848892925</v>
       </c>
       <c r="S10">
-        <v>0.03147469774582262</v>
+        <v>0.02279603825219707</v>
       </c>
       <c r="T10">
-        <v>0.02255536052870785</v>
+        <v>0.01608240142860929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>52.872045</v>
       </c>
       <c r="I11">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J11">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N11">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O11">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P11">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q11">
-        <v>967.3980214648133</v>
+        <v>1432.723379719195</v>
       </c>
       <c r="R11">
-        <v>8706.58219318332</v>
+        <v>12894.51041747275</v>
       </c>
       <c r="S11">
-        <v>0.06710768808963123</v>
+        <v>0.08033179851885665</v>
       </c>
       <c r="T11">
-        <v>0.07213594764276644</v>
+        <v>0.08501004979261459</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H12">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I12">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J12">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N12">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O12">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P12">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q12">
-        <v>226.4357007302539</v>
+        <v>314.8805404741291</v>
       </c>
       <c r="R12">
-        <v>2037.921306572285</v>
+        <v>2833.924864267162</v>
       </c>
       <c r="S12">
-        <v>0.01570767774979956</v>
+        <v>0.01765513182302789</v>
       </c>
       <c r="T12">
-        <v>0.01688462606900715</v>
+        <v>0.01868330677320103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H13">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I13">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J13">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P13">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q13">
-        <v>1049.297163617478</v>
+        <v>1319.070401055691</v>
       </c>
       <c r="R13">
-        <v>9443.674472557299</v>
+        <v>11871.63360950122</v>
       </c>
       <c r="S13">
-        <v>0.07278897124758867</v>
+        <v>0.07395935544135629</v>
       </c>
       <c r="T13">
-        <v>0.07824291922966975</v>
+        <v>0.07826649726040348</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H14">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I14">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J14">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N14">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O14">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P14">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q14">
-        <v>1478.533839460394</v>
+        <v>2397.198712101965</v>
       </c>
       <c r="R14">
-        <v>13306.80455514355</v>
+        <v>21574.78840891768</v>
       </c>
       <c r="S14">
-        <v>0.1025648032422423</v>
+        <v>0.1344092562989937</v>
       </c>
       <c r="T14">
-        <v>0.110249801286422</v>
+        <v>0.1422367951575693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H15">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I15">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J15">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N15">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O15">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P15">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q15">
-        <v>688.6942126282108</v>
+        <v>775.7747832475175</v>
       </c>
       <c r="R15">
-        <v>4132.165275769265</v>
+        <v>4654.648699485105</v>
       </c>
       <c r="S15">
-        <v>0.04777421018518092</v>
+        <v>0.04349714987973707</v>
       </c>
       <c r="T15">
-        <v>0.0342358977805923</v>
+        <v>0.03068685083027066</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H16">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I16">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J16">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N16">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O16">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P16">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q16">
-        <v>1468.375543537098</v>
+        <v>2733.78132175414</v>
       </c>
       <c r="R16">
-        <v>13215.37989183388</v>
+        <v>24604.03189578726</v>
       </c>
       <c r="S16">
-        <v>0.101860129737421</v>
+        <v>0.1532812079724764</v>
       </c>
       <c r="T16">
-        <v>0.1094923278508726</v>
+        <v>0.1622077852390375</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H17">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I17">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J17">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N17">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O17">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P17">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q17">
-        <v>48.03162083362717</v>
+        <v>47.98129585838333</v>
       </c>
       <c r="R17">
-        <v>288.1897250017631</v>
+        <v>287.8877751503</v>
       </c>
       <c r="S17">
-        <v>0.003331918153462675</v>
+        <v>0.002690277722922861</v>
       </c>
       <c r="T17">
-        <v>0.002387715231148536</v>
+        <v>0.001897966910558258</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H18">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I18">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J18">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>117.67466</v>
       </c>
       <c r="O18">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P18">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q18">
-        <v>222.5772850400234</v>
+        <v>200.9991061238333</v>
       </c>
       <c r="R18">
-        <v>1335.46371024014</v>
+        <v>1205.994636743</v>
       </c>
       <c r="S18">
-        <v>0.01544002229577241</v>
+        <v>0.01126987939484502</v>
       </c>
       <c r="T18">
-        <v>0.01106461044566044</v>
+        <v>0.007950799278135152</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H19">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I19">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J19">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N19">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O19">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P19">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q19">
-        <v>313.6271203596484</v>
+        <v>365.283610297125</v>
       </c>
       <c r="R19">
-        <v>1881.76272215789</v>
+        <v>2191.70166178275</v>
       </c>
       <c r="S19">
-        <v>0.02175608229762132</v>
+        <v>0.02048119671948148</v>
       </c>
       <c r="T19">
-        <v>0.01559081786512839</v>
+        <v>0.0144493013977668</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H20">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I20">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J20">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N20">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O20">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P20">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q20">
-        <v>146.0860596831318</v>
+        <v>118.2120665139375</v>
       </c>
       <c r="R20">
-        <v>584.3442387325271</v>
+        <v>472.8482660557499</v>
       </c>
       <c r="S20">
-        <v>0.01013388234205257</v>
+        <v>0.00662806794676339</v>
       </c>
       <c r="T20">
-        <v>0.004841420488003226</v>
+        <v>0.003117361833860855</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H21">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I21">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J21">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N21">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O21">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P21">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q21">
-        <v>311.4723390396973</v>
+        <v>416.571853610575</v>
       </c>
       <c r="R21">
-        <v>1868.834034238184</v>
+        <v>2499.43112166345</v>
       </c>
       <c r="S21">
-        <v>0.02160660670483306</v>
+        <v>0.02335689267486519</v>
       </c>
       <c r="T21">
-        <v>0.01548370084329682</v>
+        <v>0.0164780792156252</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H22">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I22">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J22">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N22">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O22">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P22">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q22">
-        <v>211.2148612720563</v>
+        <v>160.2014421908751</v>
       </c>
       <c r="R22">
-        <v>1900.933751448506</v>
+        <v>1441.812979717876</v>
       </c>
       <c r="S22">
-        <v>0.01465181932941904</v>
+        <v>0.008982382893081524</v>
       </c>
       <c r="T22">
-        <v>0.01574965405761831</v>
+        <v>0.009505486383675927</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H23">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I23">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J23">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>117.67466</v>
       </c>
       <c r="O23">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P23">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q23">
-        <v>978.7641883849647</v>
+        <v>671.1020639199512</v>
       </c>
       <c r="R23">
-        <v>8808.87769546468</v>
+        <v>6039.91857527956</v>
       </c>
       <c r="S23">
-        <v>0.06789615071569415</v>
+        <v>0.03762822366657587</v>
       </c>
       <c r="T23">
-        <v>0.07298348836918792</v>
+        <v>0.03981956369061486</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H24">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I24">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J24">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N24">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O24">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P24">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q24">
-        <v>1379.147893996131</v>
+        <v>1219.62027351257</v>
       </c>
       <c r="R24">
-        <v>12412.33104596518</v>
+        <v>10976.58246161313</v>
       </c>
       <c r="S24">
-        <v>0.09567047342067624</v>
+        <v>0.06838325629929135</v>
       </c>
       <c r="T24">
-        <v>0.102838891609781</v>
+        <v>0.07236566503137991</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H25">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I25">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J25">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N25">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O25">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P25">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q25">
-        <v>642.4006996689125</v>
+        <v>394.690122496715</v>
       </c>
       <c r="R25">
-        <v>3854.404198013475</v>
+        <v>2368.14073498029</v>
       </c>
       <c r="S25">
-        <v>0.04456286329453722</v>
+        <v>0.02212999930524145</v>
       </c>
       <c r="T25">
-        <v>0.03193458618465086</v>
+        <v>0.01561251689895877</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H26">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I26">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J26">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N26">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O26">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P26">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q26">
-        <v>1369.672431172557</v>
+        <v>1390.863054668419</v>
       </c>
       <c r="R26">
-        <v>12327.05188055301</v>
+        <v>12517.76749201578</v>
       </c>
       <c r="S26">
-        <v>0.09501316754495558</v>
+        <v>0.07798471935094929</v>
       </c>
       <c r="T26">
-        <v>0.1021323349754213</v>
+        <v>0.08252628470071044</v>
       </c>
     </row>
   </sheetData>
